--- a/data/trans_dic/P2A_lim_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2A_lim_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,12 +667,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,12 +692,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +707,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>10,39%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,86</t>
+          <t>2,73; 6,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 9,74</t>
+          <t>4,27; 10,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 6,72</t>
+          <t>2,83; 6,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,89; 14,66</t>
+          <t>8,78; 14,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 8,27</t>
+          <t>3,33; 8,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,43; 12,73</t>
+          <t>5,59; 12,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 8,76</t>
+          <t>3,4; 8,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,17; 12,15</t>
+          <t>6,96; 11,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,44; 6,52</t>
+          <t>3,42; 6,55</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,52; 9,82</t>
+          <t>5,39; 9,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 6,81</t>
+          <t>3,48; 6,82</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,49; 12,36</t>
+          <t>8,7; 12,47</t>
         </is>
       </c>
     </row>
@@ -796,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -811,37 +812,37 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -851,7 +852,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>9,37%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 8,29</t>
+          <t>3,51; 8,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 9,64</t>
+          <t>4,34; 9,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,42; 8,23</t>
+          <t>3,48; 8,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,08; 12,58</t>
+          <t>7,15; 12,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 8,86</t>
+          <t>3,39; 8,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,87; 11,14</t>
+          <t>4,85; 11,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 8,19</t>
+          <t>3,21; 8,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,64; 11,67</t>
+          <t>7,01; 11,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,58</t>
+          <t>3,93; 7,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,44; 9,43</t>
+          <t>5,44; 9,39</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,35</t>
+          <t>3,77; 7,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,5; 11,48</t>
+          <t>7,71; 11,42</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -951,17 +952,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -971,17 +972,17 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
@@ -991,7 +992,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>11,08%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,55; 8,78</t>
+          <t>4,4; 8,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,07; 14,63</t>
+          <t>9,14; 14,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,65; 10,37</t>
+          <t>5,43; 10,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 17,13</t>
+          <t>3,49; 17,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,14; 15,03</t>
+          <t>6,24; 16,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,62; 14,24</t>
+          <t>6,73; 14,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 13,85</t>
+          <t>4,34; 14,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,54; 20,38</t>
+          <t>10,49; 20,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,53; 9,33</t>
+          <t>5,6; 9,21</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,14; 13,7</t>
+          <t>9,05; 13,66</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,05; 9,98</t>
+          <t>5,85; 10,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 16,58</t>
+          <t>3,85; 16,3</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1086,12 +1087,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1106,17 +1107,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,1%</t>
+          <t>30,22%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1126,12 +1127,12 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>22,22%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,59; 9,66</t>
+          <t>6,56; 9,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,21; 12,93</t>
+          <t>9,11; 13,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,87; 9,05</t>
+          <t>5,87; 9,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,4; 16,59</t>
+          <t>12,59; 16,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,31; 10,47</t>
+          <t>6,03; 10,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,41; 15,43</t>
+          <t>10,6; 15,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,84; 11,17</t>
+          <t>6,86; 11,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,9; 62,72</t>
+          <t>10,99; 65,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,91; 9,3</t>
+          <t>6,93; 9,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,13; 13,39</t>
+          <t>10,33; 13,39</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,89; 9,33</t>
+          <t>6,83; 9,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,9; 46,56</t>
+          <t>12,86; 43,58</t>
         </is>
       </c>
     </row>
@@ -1216,22 +1217,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1246,12 +1247,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1261,17 +1262,17 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>17,4%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,7; 11,85</t>
+          <t>5,42; 11,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,5; 11,4</t>
+          <t>6,44; 11,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,34; 11,48</t>
+          <t>6,58; 11,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,74; 24,18</t>
+          <t>16,95; 24,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,28; 10,89</t>
+          <t>6,55; 11,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,35; 16,55</t>
+          <t>11,35; 16,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,82; 13,62</t>
+          <t>8,81; 13,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,52; 18,27</t>
+          <t>11,5; 18,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,7; 10,38</t>
+          <t>6,54; 10,42</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,14; 13,96</t>
+          <t>10,2; 13,94</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,37; 11,79</t>
+          <t>8,49; 11,91</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,21; 19,63</t>
+          <t>14,1; 19,77</t>
         </is>
       </c>
     </row>
@@ -1356,27 +1357,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1386,32 +1387,32 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>15,65%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,62; 7,99</t>
+          <t>2,66; 7,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,06; 12,67</t>
+          <t>5,1; 12,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,3; 10,27</t>
+          <t>4,12; 10,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,14; 11,19</t>
+          <t>2,89; 10,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,33; 10,53</t>
+          <t>7,45; 10,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,61; 13,35</t>
+          <t>9,33; 13,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,5; 11,16</t>
+          <t>7,56; 11,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,35; 21,33</t>
+          <t>16,65; 21,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,87; 9,61</t>
+          <t>6,75; 9,62</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,89; 12,35</t>
+          <t>9,06; 12,57</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,11; 10,31</t>
+          <t>7,35; 10,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,45; 17,91</t>
+          <t>13,68; 17,99</t>
         </is>
       </c>
     </row>
@@ -1496,27 +1497,27 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1526,17 +1527,17 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1546,12 +1547,12 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>15,86%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,78; 7,48</t>
+          <t>5,86; 7,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,55; 10,68</t>
+          <t>8,55; 10,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,16; 7,91</t>
+          <t>6,23; 8,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,9; 14,28</t>
+          <t>10,33; 14,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,12; 9,01</t>
+          <t>7,13; 9,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,49; 12,79</t>
+          <t>10,37; 12,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,78; 9,72</t>
+          <t>7,79; 9,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,39; 34,64</t>
+          <t>13,42; 34,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,71; 8,0</t>
+          <t>6,72; 8,03</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,8; 11,36</t>
+          <t>9,82; 11,32</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,22; 8,54</t>
+          <t>7,26; 8,55</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,86; 25,75</t>
+          <t>12,86; 23,7</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con alguna limitación</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>21223</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>28596</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>18494</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>57054</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16422</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>26821</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>19219</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>41089</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>37644</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>55417</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>37713</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>98143</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>12919; 32276</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>18655; 44072</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11943; 29003</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>43872; 71384</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10197; 25924</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>17593; 39742</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11800; 30356</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>30957; 52067</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>26629; 51047</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>40534; 72658</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>26753; 52455</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>82129; 117789</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>20078</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>28441</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>20548</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>42595</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>21293</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>25503</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>19592</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>35275</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>41371</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>53944</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>40140</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>77871</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12825; 31157</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18177; 41466</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13127; 31829</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>32208; 57008</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>12589; 31547</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>16336; 37454</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>11913; 29761</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>26692; 45060</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>28914; 54904</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>41106; 71013</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>28250; 54173</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>64047; 94915</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>34883</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>74001</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>40248</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>68289</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16657</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>25484</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13580</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24128</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>51541</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>99485</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>53828</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>92417</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>23835; 46181</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>57506; 94176</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>28316; 53873</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>23285; 114641</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10338; 26808</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>17443; 36587</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7204; 24333</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17432; 33506</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>39636; 65157</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>80454; 121342</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>40259; 71543</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>32082; 135925</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>98608</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>127951</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>85645</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>150806</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>57760</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>98848</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>72816</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>294450</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>156368</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>226799</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>158461</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>445257</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>81027; 118300</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>105537; 152621</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>67298; 105673</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>129661; 174067</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>43067; 74759</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>81285; 120455</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>56595; 91171</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>107113; 640373</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>135107; 182793</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>198998; 257937</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>134690; 182489</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>257671; 873400</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>28766</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>44771</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>53620</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>95548</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>48514</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>106452</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>81832</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>131350</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>77280</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>151224</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>135452</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>226898</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>18960; 39983</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>32759; 58345</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>40499; 68267</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>79274; 115761</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>37235; 65519</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>86457; 125239</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>64734; 99374</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>96170; 154610</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>60112; 95725</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>129489; 176996</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>114637; 160921</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>183862; 257841</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>14101</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>21622</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>19386</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>14134</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>110783</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>124677</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>99880</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>142297</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>124884</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>146299</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>119266</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>156432</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>7917; 23245</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>13556; 33125</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>11769; 29132</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6905; 26229</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>92978; 134775</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>103524; 147969</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>81610; 122924</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>126695; 160786</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>104196; 148667</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>124626; 172811</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>100398; 141120</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>136714; 179790</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>217659</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>325382</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>237941</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>428427</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>271430</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>407785</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>306919</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>668590</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>489089</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>733167</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>544860</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1097018</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>190953; 247634</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>292312; 367146</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>209909; 270500</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>346400; 481146</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>240406; 303709</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>368047; 448571</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>274639; 345842</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>478256; 1221838</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>445998; 532825</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>684186; 788610</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>500382; 589512</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>889277; 1639100</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P2A_lim_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2A_lim_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
